--- a/工作计划/2023/appcenter.xlsx
+++ b/工作计划/2023/appcenter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>时间</t>
   </si>
@@ -29,20 +29,20 @@
     <t>2023.08.21</t>
   </si>
   <si>
-    <t>发起需求会</t>
+    <t>1 发起需求会</t>
   </si>
   <si>
     <t>2023.08.22</t>
   </si>
   <si>
-    <t>appcenter-library init</t>
+    <t>1 appcenter-library 设计</t>
   </si>
   <si>
     <t>2023.08.23</t>
   </si>
   <si>
     <r>
-      <t>appcenter</t>
+      <t>1 appcenter</t>
     </r>
     <r>
       <rPr>
@@ -84,14 +84,14 @@
     <t>2023.08.24</t>
   </si>
   <si>
-    <t>1 appcenter-library init
+    <t>1 appcenter-library 设计
 2 更新wiki文档：support app center</t>
   </si>
   <si>
     <t>2023.08.25</t>
   </si>
   <si>
-    <t>1 appcenter-library init
+    <t>1 appcenter-library 设计
 2 更新wiki文档：support app center
 3 迭代会 &amp; 需求会：讨论在服务上怎么打maven包合适</t>
   </si>
@@ -99,7 +99,7 @@
     <t>2023.08.28</t>
   </si>
   <si>
-    <t>1  appcenter-library init:  集成device set &amp; device configuration</t>
+    <t>更新app center设计文档</t>
   </si>
   <si>
     <t>2023.08.29</t>
@@ -111,13 +111,16 @@
     <t>2023.08.31</t>
   </si>
   <si>
+    <t>1  appcenter-library 设计</t>
+  </si>
+  <si>
     <t>2023.09.01</t>
   </si>
   <si>
     <t>2023.09.04</t>
   </si>
   <si>
-    <t>1 list device API done</t>
+    <t>1 modify list device API: 集成 appcenter-library</t>
   </si>
   <si>
     <t>2023.09.05</t>
@@ -261,6 +264,9 @@
     <t>设计review：appcenter</t>
   </si>
   <si>
+    <t>进度review</t>
+  </si>
+  <si>
     <t>2023.09.22</t>
   </si>
   <si>
@@ -290,10 +296,14 @@
     <t>2023.09.25</t>
   </si>
   <si>
+    <t>更新app center 设计文档
+迭代会</t>
+  </si>
+  <si>
+    <t>2023.09.26</t>
+  </si>
+  <si>
     <t>更新app center 设计文档</t>
-  </si>
-  <si>
-    <t>2023.09.26</t>
   </si>
   <si>
     <t>2023.09.27</t>
@@ -429,10 +439,17 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -608,12 +625,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -928,174 +951,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1464,10 +1496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1507,307 +1539,317 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="26" spans="1:2">
+    <row r="5" ht="28" spans="1:2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="40" spans="1:2">
+    <row r="6" ht="42" spans="1:2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" ht="31" spans="1:2">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" ht="17" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="31" spans="1:2">
+    <row r="10" ht="17" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="31" spans="1:2">
+    <row r="11" ht="17" spans="1:2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="31" spans="1:2">
+    <row r="12" ht="17" spans="1:2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="31" spans="1:2">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="1:2">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+    </row>
+    <row r="16" ht="17" spans="1:2">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:2">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="31" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1"/>
     <row r="23" ht="17" spans="1:2">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="34" spans="1:2">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1"/>
+    <row r="35" ht="34" spans="1:2">
       <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" ht="34" spans="1:2">
       <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
+        <v>54</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1"/>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="16" spans="1:2">
       <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" ht="16" spans="1:2">
       <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" ht="34" spans="1:2">
       <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>68</v>
-      </c>
-    </row>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
